--- a/Backlog/Product-Backlog.xlsx
+++ b/Backlog/Product-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -181,13 +181,16 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>Tobias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +267,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -330,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,6 +379,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -666,7 +677,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -911,8 +922,10 @@
       <c r="C18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="26"/>
       <c r="F18" s="15"/>
       <c r="G18" s="23"/>
     </row>
@@ -923,7 +936,9 @@
       <c r="C19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="22"/>
       <c r="F19" s="15"/>
       <c r="G19" s="23"/>

--- a/Backlog/Product-Backlog.xlsx
+++ b/Backlog/Product-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -368,7 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -380,6 +379,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -677,7 +677,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -732,8 +732,13 @@
         <v>44</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="26">
+        <v>60</v>
+      </c>
       <c r="J5" t="s">
         <v>44</v>
       </c>
@@ -752,10 +757,10 @@
         <v>53</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>40</v>
       </c>
       <c r="J6" t="s">
@@ -772,10 +777,16 @@
       <c r="C7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="23"/>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="22">
+        <v>20</v>
+      </c>
       <c r="J7" t="s">
         <v>46</v>
       </c>
@@ -791,9 +802,9 @@
         <v>45</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="23"/>
       <c r="J8" s="17"/>
       <c r="K8" t="s">
         <v>50</v>
@@ -807,9 +818,9 @@
         <v>44</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="23"/>
       <c r="J9" s="18"/>
       <c r="K9" t="s">
         <v>51</v>
@@ -823,9 +834,9 @@
         <v>45</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="23"/>
       <c r="J10" s="19"/>
       <c r="K10" t="s">
         <v>52</v>
@@ -839,9 +850,9 @@
         <v>45</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="13" t="s">
@@ -851,9 +862,9 @@
         <v>46</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="13" t="s">
@@ -863,9 +874,9 @@
         <v>45</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="13" t="s">
@@ -875,9 +886,9 @@
         <v>45</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" s="13" t="s">
@@ -887,9 +898,9 @@
         <v>46</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="13" t="s">
@@ -899,9 +910,9 @@
         <v>46</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="18.75">
       <c r="B17" s="4" t="s">
@@ -911,9 +922,9 @@
         <v>44</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7" ht="15.75">
       <c r="B18" s="6" t="s">
@@ -925,9 +936,9 @@
       <c r="D18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="2:7" ht="15.75">
       <c r="B19" s="6" t="s">
@@ -939,9 +950,9 @@
       <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="2:7" ht="15.75">
       <c r="B20" s="6" t="s">
@@ -951,9 +962,9 @@
         <v>44</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="22"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7" t="s">
@@ -963,9 +974,9 @@
         <v>44</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="7" t="s">
@@ -975,9 +986,9 @@
         <v>44</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="23"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="7" t="s">
@@ -987,9 +998,9 @@
         <v>45</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="23"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="7" t="s">
@@ -999,9 +1010,9 @@
         <v>45</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="23"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="7" t="s">
@@ -1011,9 +1022,9 @@
         <v>45</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="23"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="8" t="s">
@@ -1023,9 +1034,9 @@
         <v>45</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="7" t="s">
@@ -1035,9 +1046,9 @@
         <v>46</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="7" t="s">
@@ -1047,9 +1058,9 @@
         <v>45</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="7" t="s">
@@ -1059,9 +1070,9 @@
         <v>46</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="2:7" ht="15.75">
       <c r="B30" s="6" t="s">
@@ -1071,9 +1082,9 @@
         <v>45</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="7" t="s">
@@ -1083,9 +1094,9 @@
         <v>46</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="7" t="s">
@@ -1095,9 +1106,9 @@
         <v>45</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="22"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
@@ -1107,9 +1118,9 @@
         <v>45</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="22"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="23"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="8" t="s">
@@ -1119,9 +1130,9 @@
         <v>45</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="22"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="23"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="9" t="s">
@@ -1131,9 +1142,9 @@
         <v>45</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="22"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="23"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="7" t="s">
@@ -1143,9 +1154,9 @@
         <v>45</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="23"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="8" t="s">
@@ -1155,9 +1166,9 @@
         <v>45</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="23"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="7" t="s">
@@ -1167,9 +1178,9 @@
         <v>46</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="22"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="23"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="7" t="s">
@@ -1179,9 +1190,9 @@
         <v>46</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="22"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="23"/>
+      <c r="G39" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Backlog/Product-Backlog.xlsx
+++ b/Backlog/Product-Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -269,7 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,8 +378,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -677,7 +678,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -736,7 +737,7 @@
       <c r="F5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>60</v>
       </c>
       <c r="J5" t="s">
@@ -936,9 +937,11 @@
       <c r="D18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="22">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="15.75">
       <c r="B19" s="6" t="s">
@@ -950,9 +953,11 @@
       <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="15.75">
       <c r="B20" s="6" t="s">
@@ -973,8 +978,10 @@
       <c r="C21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="27"/>
       <c r="F21" s="15"/>
       <c r="G21" s="22"/>
     </row>
